--- a/LandingPageDev/csv/item_template.xlsx
+++ b/LandingPageDev/csv/item_template.xlsx
@@ -65,13 +65,13 @@
     <t>Zip</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Reuse/Recycle ('0' for reuse, '1' for recycle, '2' for both)</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Location Name</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +427,8 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,13 +496,13 @@
         <v>5</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
